--- a/C_User Dying Causes Crash.xlsx
+++ b/C_User Dying Causes Crash.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,12 @@
     <t>As a novice gamer, I would like for the game not to crash when I die so that I can start a new game immediately.</t>
   </si>
   <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
     <t>Approval</t>
   </si>
   <si>
@@ -44,12 +50,6 @@
     <t>AS</t>
   </si>
   <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>C01</t>
-  </si>
-  <si>
     <t>Test Owner</t>
   </si>
   <si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Test to see whether or not user dying causes crashing</t>
+  </si>
+  <si>
+    <t>Tester</t>
   </si>
   <si>
     <t>Procedure</t>
@@ -199,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -222,10 +225,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -244,6 +247,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -535,28 +541,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -580,11 +586,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
+      <c r="A1" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
@@ -645,7 +651,7 @@
       <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="16"/>
@@ -655,166 +661,177 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="23"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="22">
         <v>3.0</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
     </row>
     <row r="12">
       <c r="A12" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="26">
         <v>5.0</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="16"/>
+      <c r="C13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="27"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="27"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17">
-      <c r="A17" s="27"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="27"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="16"/>
     </row>
     <row r="20">
       <c r="A20" s="28"/>
+      <c r="B20" s="16"/>
     </row>
     <row r="21">
       <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
     </row>
     <row r="22">
-      <c r="A22" s="31"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="32"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="32"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26">
       <c r="A26" s="34"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27">
-      <c r="A27" s="30"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B16:D16"/>
+  <mergeCells count="15">
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/C_User Dying Causes Crash.xlsx
+++ b/C_User Dying Causes Crash.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timca\Documents\Shared Java\CSC225\WaveGame2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EDEDED-5BF8-43F5-B7C4-8048FEFD21A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="324" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Stories" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Test C01" sheetId="2" r:id="rId5"/>
+    <sheet name="Stories" sheetId="1" r:id="rId1"/>
+    <sheet name="Test C01" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -117,43 +126,67 @@
   </si>
   <si>
     <t>Player is brought to main menu</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Pre-Test</t>
+  </si>
+  <si>
+    <t>Post-Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -167,27 +200,34 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -197,126 +237,201 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -506,20 +621,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +647,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -540,12 +658,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -566,262 +684,472 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.14"/>
-    <col customWidth="1" min="3" max="3" width="55.57"/>
-    <col customWidth="1" min="4" max="4" width="7.14"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="14" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="18" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="B6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="F8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="23" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="23" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="28"/>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="28"/>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="28"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="28"/>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="28"/>
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="29"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="32"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="32"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="33"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="34"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="33"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="35"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:D21"/>
+  <mergeCells count="23">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
@@ -832,7 +1160,12 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/C_User Dying Causes Crash.xlsx
+++ b/C_User Dying Causes Crash.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timca\Documents\Shared Java\CSC225\WaveGame2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EDEDED-5BF8-43F5-B7C4-8048FEFD21A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C12102-A5AF-437D-B5CE-74E87A6DB565}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="324" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Post-Test</t>
+  </si>
+  <si>
+    <t>Richie Petrosino</t>
   </si>
 </sst>
 </file>
@@ -388,6 +391,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -398,19 +414,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,10 +696,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -704,18 +707,18 @@
     <col min="2" max="2" width="36.109375" customWidth="1"/>
     <col min="3" max="3" width="55.5546875" customWidth="1"/>
     <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="14" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="3.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -723,139 +726,139 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="12"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="12"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="12"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="12"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="12"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="43" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="K7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="K8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="L8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="M8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="N8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="O8" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="18" t="s">
         <v>35</v>
       </c>
@@ -871,9 +874,6 @@
       <c r="I9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="K9" s="18" t="s">
         <v>35</v>
       </c>
@@ -886,18 +886,21 @@
       <c r="N9" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
@@ -913,9 +916,6 @@
       <c r="I10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="K10" s="18" t="s">
         <v>35</v>
       </c>
@@ -928,18 +928,21 @@
       <c r="N10" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="18" t="s">
         <v>35</v>
       </c>
@@ -955,9 +958,6 @@
       <c r="I11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="K11" s="18" t="s">
         <v>35</v>
       </c>
@@ -970,18 +970,21 @@
       <c r="N11" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="18" t="s">
         <v>35</v>
       </c>
@@ -997,9 +1000,6 @@
       <c r="I12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="K12" s="18" t="s">
         <v>35</v>
       </c>
@@ -1012,18 +1012,21 @@
       <c r="N12" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>5</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="18" t="s">
         <v>35</v>
       </c>
@@ -1039,9 +1042,6 @@
       <c r="I13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="K13" s="18" t="s">
         <v>35</v>
       </c>
@@ -1054,50 +1054,55 @@
       <c r="N13" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
@@ -1136,20 +1141,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K7:O7"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
@@ -1165,6 +1163,13 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="A21:D21"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
